--- a/reports/report.xlsx
+++ b/reports/report.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O102"/>
+  <dimension ref="A1:O121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -517,11 +517,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>20.05.2018 14:34:52</t>
+          <t>12.07.2018 17:36:12</t>
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>43241</v>
+        <v>43295</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -534,15 +534,15 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>-22.55</v>
+        <v>-685</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>TRY</t>
+          <t>RUB</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>-326.53</v>
+        <v>-685</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -560,27 +560,27 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Side Carsi Mjet</t>
+          <t>Дикси</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>326.53</v>
+        <v>685</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>20.05.2018 12:48:01</t>
+          <t>10.07.2018 20:25:20</t>
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>43241</v>
+        <v>43293</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -593,15 +593,15 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>-1.5</v>
+        <v>-340.4</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>TRY</t>
+          <t>RUB</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>-21.73</v>
+        <v>-340.4</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -619,27 +619,27 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Side Carsi Mjet</t>
+          <t>Магнит</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>21.73</v>
+        <v>340.4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>19.05.2018 16:38:52</t>
+          <t>10.07.2018 15:36:26</t>
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>43240</v>
+        <v>43293</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -652,15 +652,15 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>-1.9</v>
+        <v>-27</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>TRY</t>
+          <t>RUB</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>-27.39</v>
+        <v>-27</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -674,11 +674,11 @@
         </is>
       </c>
       <c r="K4" t="n">
-        <v>5411</v>
+        <v>5499</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Side Carsi Mjet</t>
+          <t>Magazin 25</t>
         </is>
       </c>
       <c r="M4" t="n">
@@ -688,17 +688,17 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>27.39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>19.05.2018 14:45:40</t>
+          <t>10.07.2018 13:37:08</t>
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>43240</v>
+        <v>43293</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -711,15 +711,15 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-1.5</v>
+        <v>-261.78</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>TRY</t>
+          <t>RUB</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>-21.66</v>
+        <v>-261.78</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -737,27 +737,27 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Side Carsi Mjet</t>
+          <t>Пятёрочка</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>21.66</v>
+        <v>261.78</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>19.05.2018 12:37:10</t>
+          <t>08.07.2018 00:00:00</t>
         </is>
       </c>
       <c r="B6" s="2" t="n">
-        <v>43240</v>
+        <v>43291</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -770,15 +770,15 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>-13.4</v>
+        <v>-55.73</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>TRY</t>
+          <t>RUB</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>-193.65</v>
+        <v>-55.73</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -796,27 +796,27 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Side Carsi Mjet</t>
+          <t>Пятёрочка</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>193.65</v>
+        <v>55.73</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>19.05.2018 10:13:32</t>
+          <t>29.06.2018 11:36:23</t>
         </is>
       </c>
       <c r="B7" s="2" t="n">
-        <v>43240</v>
+        <v>43282</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -829,15 +829,15 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>-5.75</v>
+        <v>-1137.65</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>TRY</t>
+          <t>RUB</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>-83.45</v>
+        <v>-1137.65</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -855,27 +855,27 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Side Carsi Mjet</t>
+          <t>Магнит</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>83.45</v>
+        <v>1137.65</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>18.05.2018 17:32:43</t>
+          <t>27.06.2018 21:33:16</t>
         </is>
       </c>
       <c r="B8" s="2" t="n">
-        <v>43239</v>
+        <v>43280</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -888,15 +888,15 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>-4.25</v>
+        <v>-106.09</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>TRY</t>
+          <t>RUB</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>-61.15</v>
+        <v>-106.09</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -914,27 +914,27 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Side M Jet</t>
+          <t>SPAR</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>61.15</v>
+        <v>106.09</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>18.05.2018 15:34:33</t>
+          <t>27.06.2018 10:53:35</t>
         </is>
       </c>
       <c r="B9" s="2" t="n">
-        <v>43239</v>
+        <v>43280</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -947,15 +947,15 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>-2</v>
+        <v>-41.7</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>TRY</t>
+          <t>RUB</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>-28.67</v>
+        <v>-41.7</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -973,7 +973,7 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Eren Market 2</t>
+          <t>SPAR</t>
         </is>
       </c>
       <c r="M9" t="n">
@@ -983,17 +983,17 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>28.67</v>
+        <v>41.7</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>18.05.2018 12:00:44</t>
+          <t>27.06.2018 08:26:27</t>
         </is>
       </c>
       <c r="B10" s="2" t="n">
-        <v>43239</v>
+        <v>43280</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1006,15 +1006,15 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>-5.75</v>
+        <v>-54.9</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>TRY</t>
+          <t>RUB</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>-83.45</v>
+        <v>-54.9</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -1032,7 +1032,7 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Side Carsi Mjet</t>
+          <t>SPAR</t>
         </is>
       </c>
       <c r="M10" t="n">
@@ -1042,17 +1042,17 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>83.45</v>
+        <v>54.9</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>17.05.2018 19:08:25</t>
+          <t>26.06.2018 08:02:14</t>
         </is>
       </c>
       <c r="B11" s="2" t="n">
-        <v>43238</v>
+        <v>43279</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1065,15 +1065,15 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>-8.23</v>
+        <v>-37.99</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>TRY</t>
+          <t>RUB</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>-118.72</v>
+        <v>-37.99</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -1091,27 +1091,27 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Side Carsi Mjet</t>
+          <t>Пятёрочка</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>118.72</v>
+        <v>37.99</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>17.05.2018 18:24:53</t>
+          <t>25.06.2018 12:04:27</t>
         </is>
       </c>
       <c r="B12" s="2" t="n">
-        <v>43239</v>
+        <v>43278</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1124,15 +1124,15 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>-10</v>
+        <v>-64.16</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>TRY</t>
+          <t>RUB</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>-143.96</v>
+        <v>-64.16</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -1150,27 +1150,27 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Green Market</t>
+          <t>SPAR</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>143.96</v>
+        <v>64.16</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>17.05.2018 15:15:14</t>
+          <t>24.06.2018 00:00:00</t>
         </is>
       </c>
       <c r="B13" s="2" t="n">
-        <v>43238</v>
+        <v>43277</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1183,15 +1183,15 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>-20.35</v>
+        <v>-141.34</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>TRY</t>
+          <t>RUB</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>-293.02</v>
+        <v>-141.34</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -1209,27 +1209,27 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Side Carsi Mjet</t>
+          <t>SPAR</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>293.02</v>
+        <v>141.34</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>17.05.2018 12:27:06</t>
+          <t>23.06.2018 13:37:16</t>
         </is>
       </c>
       <c r="B14" s="2" t="n">
-        <v>43238</v>
+        <v>43276</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -1242,15 +1242,15 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>-1.5</v>
+        <v>-49.94</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>TRY</t>
+          <t>RUB</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>-21.47</v>
+        <v>-49.94</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -1268,7 +1268,7 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Side Carsi Mjet</t>
+          <t>SPAR</t>
         </is>
       </c>
       <c r="M14" t="n">
@@ -1278,17 +1278,17 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>21.47</v>
+        <v>49.94</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>16.05.2018 16:48:01</t>
+          <t>22.06.2018 17:44:57</t>
         </is>
       </c>
       <c r="B15" s="2" t="n">
-        <v>43238</v>
+        <v>43275</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -1301,15 +1301,15 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>-12</v>
+        <v>-412.71</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>TRY</t>
+          <t>RUB</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>-172.4</v>
+        <v>-412.71</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -1327,27 +1327,27 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Green Market</t>
+          <t>SPAR</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>172.4</v>
+        <v>412.71</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>16.05.2018 13:47:41</t>
+          <t>22.06.2018 16:45:36</t>
         </is>
       </c>
       <c r="B16" s="2" t="n">
-        <v>43237</v>
+        <v>43275</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -1360,15 +1360,15 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>-7.5</v>
+        <v>-692</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>TRY</t>
+          <t>RUB</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>-108.53</v>
+        <v>-692</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1386,27 +1386,27 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Side Carsi Mjet</t>
+          <t>Магнит</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>108.53</v>
+        <v>692</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>16.05.2018 12:57:28</t>
+          <t>21.06.2018 21:42:38</t>
         </is>
       </c>
       <c r="B17" s="2" t="n">
-        <v>43237</v>
+        <v>43274</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -1419,15 +1419,15 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>-19.35</v>
+        <v>-175.68</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>TRY</t>
+          <t>RUB</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>-279.53</v>
+        <v>-175.68</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1445,27 +1445,27 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Side Carsi Mjet</t>
+          <t>SPAR</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>279.53</v>
+        <v>175.68</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>15.05.2018 15:53:27</t>
+          <t>21.06.2018 17:01:03</t>
         </is>
       </c>
       <c r="B18" s="2" t="n">
-        <v>43236</v>
+        <v>43274</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -1478,15 +1478,15 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>-3.7</v>
+        <v>-395</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>TRY</t>
+          <t>RUB</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>-54.1</v>
+        <v>-395</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -1504,27 +1504,27 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Side Carsi Mjet</t>
+          <t>Магнит</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>54.1</v>
+        <v>395</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>15.05.2018 12:31:04</t>
+          <t>21.06.2018 12:55:03</t>
         </is>
       </c>
       <c r="B19" s="2" t="n">
-        <v>43236</v>
+        <v>43274</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -1537,15 +1537,15 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>-3</v>
+        <v>-18.16</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>TRY</t>
+          <t>RUB</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>-43.92</v>
+        <v>-18.16</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -1563,7 +1563,7 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Side Carsi Mjet</t>
+          <t>Магнит</t>
         </is>
       </c>
       <c r="M19" t="n">
@@ -1573,17 +1573,17 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>43.92</v>
+        <v>18.16</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>14.05.2018 00:00:00</t>
+          <t>20.06.2018 12:34:27</t>
         </is>
       </c>
       <c r="B20" s="2" t="n">
-        <v>43235</v>
+        <v>43273</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -1596,15 +1596,15 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>-2.7</v>
+        <v>-120.08</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>TRY</t>
+          <t>RUB</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>-39.82</v>
+        <v>-120.08</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -1622,27 +1622,27 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Side Carsi Mjet</t>
+          <t>Пятёрочка</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>39.82</v>
+        <v>120.08</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>14.05.2018 00:00:00</t>
+          <t>20.06.2018 12:30:17</t>
         </is>
       </c>
       <c r="B21" s="2" t="n">
-        <v>43235</v>
+        <v>43273</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -1655,15 +1655,15 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>-3.5</v>
+        <v>-55</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>TRY</t>
+          <t>RUB</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>-51.82</v>
+        <v>-55</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -1681,7 +1681,7 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Migros</t>
+          <t>Магнит</t>
         </is>
       </c>
       <c r="M21" t="n">
@@ -1691,17 +1691,17 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>51.82</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>13.05.2018 18:40:15</t>
+          <t>20.06.2018 08:52:39</t>
         </is>
       </c>
       <c r="B22" s="2" t="n">
-        <v>43234</v>
+        <v>43273</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1714,15 +1714,15 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>-34.2</v>
+        <v>-54.9</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>TRY</t>
+          <t>RUB</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>-512.41</v>
+        <v>-54.9</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -1740,27 +1740,27 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Side Carsi Mjet</t>
+          <t>SPAR</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>512.41</v>
+        <v>54.9</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>13.05.2018 08:54:16</t>
+          <t>19.06.2018 19:03:09</t>
         </is>
       </c>
       <c r="B23" s="2" t="n">
-        <v>43234</v>
+        <v>43272</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1773,15 +1773,15 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>-10.85</v>
+        <v>-108.32</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>TRY</t>
+          <t>RUB</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>-162.41</v>
+        <v>-108.32</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -1799,27 +1799,27 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Side Carsi Mjet</t>
+          <t>Магнит</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>162.41</v>
+        <v>108.32</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>11.05.2018 17:27:32</t>
+          <t>19.06.2018 18:22:31</t>
         </is>
       </c>
       <c r="B24" s="2" t="n">
-        <v>43232</v>
+        <v>43272</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1832,15 +1832,15 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>-11.9</v>
+        <v>-63</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>TRY</t>
+          <t>RUB</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>-178.57</v>
+        <v>-63</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -1858,27 +1858,27 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Side Carsi Mjet</t>
+          <t>SPAR</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>178.57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>10.05.2018 14:49:30</t>
+          <t>18.06.2018 00:00:00</t>
         </is>
       </c>
       <c r="B25" s="2" t="n">
-        <v>43231</v>
+        <v>43271</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -1891,15 +1891,15 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>-16.21</v>
+        <v>-391.6</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>TRY</t>
+          <t>RUB</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>-242.99</v>
+        <v>-391.6</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
@@ -1917,27 +1917,27 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Side Carsi Mjet</t>
+          <t>SPAR</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>242.99</v>
+        <v>391.6</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>09.05.2018 21:15:41</t>
+          <t>18.06.2018 00:00:00</t>
         </is>
       </c>
       <c r="B26" s="2" t="n">
-        <v>43231</v>
+        <v>43271</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -1950,7 +1950,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>-285</v>
+        <v>-61.69</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1958,7 +1958,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>-285</v>
+        <v>-61.69</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -1972,31 +1972,31 @@
         </is>
       </c>
       <c r="K26" t="n">
-        <v>5499</v>
+        <v>5411</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>IP Muradyan</t>
+          <t>SPAR</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>285</v>
+        <v>61.69</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>08.05.2018 19:34:15</t>
+          <t>17.06.2018 23:19:07</t>
         </is>
       </c>
       <c r="B27" s="2" t="n">
-        <v>43229</v>
+        <v>43270</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -2009,7 +2009,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>-44.79</v>
+        <v>-210.43</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -2017,7 +2017,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>-44.79</v>
+        <v>-210.43</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -2035,27 +2035,27 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Дикси</t>
+          <t>SPAR</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>44.79</v>
+        <v>210.43</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>07.05.2018 17:40:52</t>
+          <t>17.06.2018 14:49:30</t>
         </is>
       </c>
       <c r="B28" s="2" t="n">
-        <v>43229</v>
+        <v>43270</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -2068,7 +2068,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>-181.6</v>
+        <v>-54.9</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -2076,7 +2076,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>-181.6</v>
+        <v>-54.9</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -2094,27 +2094,27 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Перекрёсток</t>
+          <t>SPAR</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>181.6</v>
+        <v>54.9</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>06.05.2018 00:00:00</t>
+          <t>16.06.2018 17:32:00</t>
         </is>
       </c>
       <c r="B29" s="2" t="n">
-        <v>43228</v>
+        <v>43270</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -2127,7 +2127,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>-250</v>
+        <v>-113.68</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -2135,7 +2135,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>-250</v>
+        <v>-113.68</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
@@ -2153,27 +2153,27 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>IP Muradyan</t>
+          <t>Magazin 25</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>250</v>
+        <v>113.68</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>05.05.2018 20:52:23</t>
+          <t>15.06.2018 23:53:14</t>
         </is>
       </c>
       <c r="B30" s="2" t="n">
-        <v>43227</v>
+        <v>43269</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -2186,7 +2186,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>-250</v>
+        <v>-141.48</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -2194,7 +2194,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>-250</v>
+        <v>-141.48</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -2208,31 +2208,31 @@
         </is>
       </c>
       <c r="K30" t="n">
-        <v>5499</v>
+        <v>5411</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>IP Muradyan</t>
+          <t>SPAR</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>250</v>
+        <v>141.48</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>05.05.2018 20:27:42</t>
+          <t>15.06.2018 12:28:19</t>
         </is>
       </c>
       <c r="B31" s="2" t="n">
-        <v>43227</v>
+        <v>43268</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -2245,7 +2245,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>-285.09</v>
+        <v>-1164.6</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -2253,7 +2253,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>-285.09</v>
+        <v>-1164.6</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -2271,27 +2271,27 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Перекрёсток</t>
+          <t>Магнит</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>285.09</v>
+        <v>1164.6</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>05.05.2018 15:52:43</t>
+          <t>15.06.2018 11:51:23</t>
         </is>
       </c>
       <c r="B32" s="2" t="n">
-        <v>43226</v>
+        <v>43269</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -2304,7 +2304,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>-69.8</v>
+        <v>-48.85</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -2312,7 +2312,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>-69.8</v>
+        <v>-48.85</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -2330,27 +2330,27 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Дикси</t>
+          <t>Магнит</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>69.8</v>
+        <v>48.85</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>04.05.2018 21:07:21</t>
+          <t>14.06.2018 15:11:00</t>
         </is>
       </c>
       <c r="B33" s="2" t="n">
-        <v>43226</v>
+        <v>43267</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -2363,7 +2363,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>-38.59</v>
+        <v>-55.02</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>-38.59</v>
+        <v>-55.02</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
@@ -2389,27 +2389,27 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Пятёрочка</t>
+          <t>SPAR</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>38.59</v>
+        <v>55.02</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>03.05.2018 15:19:06</t>
+          <t>14.06.2018 00:39:03</t>
         </is>
       </c>
       <c r="B34" s="2" t="n">
-        <v>43225</v>
+        <v>43267</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>-368.3</v>
+        <v>-50.57</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -2430,7 +2430,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>-368.3</v>
+        <v>-50.57</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -2448,27 +2448,27 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Перекрёсток</t>
+          <t>SPAR</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>368.3</v>
+        <v>50.57</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>02.05.2018 18:28:38</t>
+          <t>13.06.2018 18:57:15</t>
         </is>
       </c>
       <c r="B35" s="2" t="n">
-        <v>43224</v>
+        <v>43266</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -2481,7 +2481,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>-221.27</v>
+        <v>-56.69</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -2489,7 +2489,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>-221.27</v>
+        <v>-56.69</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
@@ -2507,27 +2507,27 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Пятёрочка</t>
+          <t>SPAR</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>221.27</v>
+        <v>56.69</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>01.05.2018 22:06:23</t>
+          <t>13.06.2018 13:31:25</t>
         </is>
       </c>
       <c r="B36" s="2" t="n">
-        <v>43223</v>
+        <v>43266</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -2540,7 +2540,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>-416.3</v>
+        <v>-519.6</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -2548,7 +2548,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>-416.3</v>
+        <v>-519.6</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -2566,27 +2566,27 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Перекрёсток</t>
+          <t>SPAR</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>416.3</v>
+        <v>519.6</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>30.04.2018 13:09:05</t>
+          <t>11.06.2018 23:37:51</t>
         </is>
       </c>
       <c r="B37" s="2" t="n">
-        <v>43223</v>
+        <v>43264</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -2599,7 +2599,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>-116.16</v>
+        <v>-91.84999999999999</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>-116.16</v>
+        <v>-91.84999999999999</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -2625,27 +2625,27 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Перекрёсток</t>
+          <t>SPAR</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>116.16</v>
+        <v>91.84999999999999</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>29.04.2018 18:57:14</t>
+          <t>11.06.2018 14:39:33</t>
         </is>
       </c>
       <c r="B38" s="2" t="n">
-        <v>43222</v>
+        <v>43264</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -2658,7 +2658,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>-88.8</v>
+        <v>-190.01</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -2666,7 +2666,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>-88.8</v>
+        <v>-190.01</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
@@ -2684,27 +2684,27 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Перекрёсток</t>
+          <t>Пятёрочка</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>88.8</v>
+        <v>190.01</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>29.04.2018 14:17:39</t>
+          <t>07.06.2018 21:54:54</t>
         </is>
       </c>
       <c r="B39" s="2" t="n">
-        <v>43222</v>
+        <v>43260</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -2717,7 +2717,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>-220.27</v>
+        <v>-4.99</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -2725,7 +2725,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>-220.27</v>
+        <v>-4.99</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
@@ -2743,27 +2743,27 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Перекрёсток</t>
+          <t>Пятёрочка</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>220.27</v>
+        <v>4.99</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>28.04.2018 18:17:43</t>
+          <t>07.06.2018 21:54:29</t>
         </is>
       </c>
       <c r="B40" s="2" t="n">
-        <v>43224</v>
+        <v>43260</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -2776,7 +2776,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>-61.4</v>
+        <v>-509.07</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -2784,7 +2784,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>-61.4</v>
+        <v>-509.07</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
@@ -2802,27 +2802,27 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Перекрёсток</t>
+          <t>Пятёрочка</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>61.4</v>
+        <v>509.07</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>26.04.2018 17:12:29</t>
+          <t>06.06.2018 20:52:16</t>
         </is>
       </c>
       <c r="B41" s="2" t="n">
-        <v>43219</v>
+        <v>43259</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -2835,7 +2835,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>-463.3</v>
+        <v>-215.78</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -2843,7 +2843,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>-463.3</v>
+        <v>-215.78</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
@@ -2861,27 +2861,27 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Перекрёсток</t>
+          <t>SPAR</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>463.3</v>
+        <v>215.78</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>24.04.2018 14:35:40</t>
+          <t>05.06.2018 13:13:33</t>
         </is>
       </c>
       <c r="B42" s="2" t="n">
-        <v>43216</v>
+        <v>43258</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -2894,7 +2894,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>-155.6</v>
+        <v>-353.94</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -2902,7 +2902,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>-155.6</v>
+        <v>-353.94</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
@@ -2920,27 +2920,27 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Перекрёсток</t>
+          <t>Магнит</t>
         </is>
       </c>
       <c r="M42" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>155.6</v>
+        <v>353.94</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>24.04.2018 09:27:18</t>
+          <t>05.06.2018 11:12:08</t>
         </is>
       </c>
       <c r="B43" s="2" t="n">
-        <v>43216</v>
+        <v>43258</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -2953,7 +2953,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>-108.92</v>
+        <v>-165.92</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -2961,7 +2961,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>-108.92</v>
+        <v>-165.92</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
@@ -2979,27 +2979,27 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Billa</t>
+          <t>SPAR</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>108.92</v>
+        <v>165.92</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>23.04.2018 17:22:05</t>
+          <t>03.06.2018 10:23:52</t>
         </is>
       </c>
       <c r="B44" s="2" t="n">
-        <v>43215</v>
+        <v>43256</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -3012,7 +3012,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>-208.6</v>
+        <v>-512.95</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -3020,7 +3020,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>-208.6</v>
+        <v>-512.95</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
@@ -3038,27 +3038,27 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Перекрёсток</t>
+          <t>SPAR</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>208.6</v>
+        <v>512.95</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>22.04.2018 20:03:46</t>
+          <t>31.05.2018 19:51:56</t>
         </is>
       </c>
       <c r="B45" s="2" t="n">
-        <v>43214</v>
+        <v>43253</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>-342.5</v>
+        <v>-266.48</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -3079,7 +3079,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>-342.5</v>
+        <v>-266.48</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
@@ -3097,27 +3097,27 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Перекрёсток</t>
+          <t>SPAR</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>342.5</v>
+        <v>266.48</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>21.04.2018 12:49:14</t>
+          <t>31.05.2018 14:32:33</t>
         </is>
       </c>
       <c r="B46" s="2" t="n">
-        <v>43213</v>
+        <v>43253</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -3130,7 +3130,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>-433.93</v>
+        <v>-121.8</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -3138,7 +3138,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>-433.93</v>
+        <v>-121.8</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
@@ -3160,23 +3160,23 @@
         </is>
       </c>
       <c r="M46" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>433.93</v>
+        <v>121.8</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>19.04.2018 12:26:41</t>
+          <t>30.05.2018 22:58:21</t>
         </is>
       </c>
       <c r="B47" s="2" t="n">
-        <v>43211</v>
+        <v>43252</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -3189,7 +3189,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>-173.5</v>
+        <v>-78.27</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -3197,7 +3197,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>-173.5</v>
+        <v>-78.27</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
@@ -3211,31 +3211,31 @@
         </is>
       </c>
       <c r="K47" t="n">
-        <v>5499</v>
+        <v>5411</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Универсам Авоська</t>
+          <t>SPAR</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N47" t="n">
         <v>0</v>
       </c>
       <c r="O47" t="n">
-        <v>173.5</v>
+        <v>78.27</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>19.04.2018 10:12:40</t>
+          <t>29.05.2018 22:29:19</t>
         </is>
       </c>
       <c r="B48" s="2" t="n">
-        <v>43211</v>
+        <v>43251</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -3248,7 +3248,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>-89.90000000000001</v>
+        <v>-106.6</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -3256,7 +3256,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>-89.90000000000001</v>
+        <v>-106.6</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
@@ -3274,27 +3274,27 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Billa</t>
+          <t>SPAR</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N48" t="n">
         <v>0</v>
       </c>
       <c r="O48" t="n">
-        <v>89.90000000000001</v>
+        <v>106.6</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>18.04.2018 17:18:43</t>
+          <t>29.05.2018 22:20:20</t>
         </is>
       </c>
       <c r="B49" s="2" t="n">
-        <v>43210</v>
+        <v>43251</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -3307,7 +3307,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>-215.18</v>
+        <v>-238.6</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -3315,7 +3315,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>-215.18</v>
+        <v>-238.6</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
@@ -3329,11 +3329,11 @@
         </is>
       </c>
       <c r="K49" t="n">
-        <v>5499</v>
+        <v>5411</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>Универсам Авоська</t>
+          <t>Магнит</t>
         </is>
       </c>
       <c r="M49" t="n">
@@ -3343,17 +3343,17 @@
         <v>0</v>
       </c>
       <c r="O49" t="n">
-        <v>215.18</v>
+        <v>238.6</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>17.04.2018 17:33:50</t>
+          <t>29.05.2018 17:39:23</t>
         </is>
       </c>
       <c r="B50" s="2" t="n">
-        <v>43209</v>
+        <v>43251</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -3366,7 +3366,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>-132.7</v>
+        <v>-149.4</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -3374,7 +3374,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>-132.7</v>
+        <v>-149.4</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
@@ -3392,7 +3392,7 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Перекрёсток</t>
+          <t>7Я семьЯ</t>
         </is>
       </c>
       <c r="M50" t="n">
@@ -3402,17 +3402,17 @@
         <v>0</v>
       </c>
       <c r="O50" t="n">
-        <v>132.7</v>
+        <v>149.4</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>17.04.2018 09:21:41</t>
+          <t>29.05.2018 15:58:44</t>
         </is>
       </c>
       <c r="B51" s="2" t="n">
-        <v>43209</v>
+        <v>43251</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -3425,7 +3425,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>-89.90000000000001</v>
+        <v>-49.8</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>-89.90000000000001</v>
+        <v>-49.8</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
@@ -3451,27 +3451,27 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Billa</t>
+          <t>7Я семьЯ</t>
         </is>
       </c>
       <c r="M51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N51" t="n">
         <v>0</v>
       </c>
       <c r="O51" t="n">
-        <v>89.90000000000001</v>
+        <v>49.8</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>15.04.2018 00:00:00</t>
+          <t>29.05.2018 13:30:15</t>
         </is>
       </c>
       <c r="B52" s="2" t="n">
-        <v>43207</v>
+        <v>43251</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -3484,7 +3484,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>-703.8200000000001</v>
+        <v>-331.71</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -3492,7 +3492,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>-703.8200000000001</v>
+        <v>-331.71</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
@@ -3510,27 +3510,27 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Перекрёсток</t>
+          <t>SPAR</t>
         </is>
       </c>
       <c r="M52" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="N52" t="n">
         <v>0</v>
       </c>
       <c r="O52" t="n">
-        <v>703.8200000000001</v>
+        <v>331.71</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>13.04.2018 13:37:59</t>
+          <t>28.05.2018 23:38:35</t>
         </is>
       </c>
       <c r="B53" s="2" t="n">
-        <v>43206</v>
+        <v>43250</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -3543,7 +3543,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>-149.6</v>
+        <v>-129.72</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -3551,7 +3551,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>-149.6</v>
+        <v>-129.72</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
@@ -3569,7 +3569,7 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Перекрёсток</t>
+          <t>SPAR</t>
         </is>
       </c>
       <c r="M53" t="n">
@@ -3579,17 +3579,17 @@
         <v>0</v>
       </c>
       <c r="O53" t="n">
-        <v>149.6</v>
+        <v>129.72</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>13.04.2018 09:25:06</t>
+          <t>27.05.2018 15:16:54</t>
         </is>
       </c>
       <c r="B54" s="2" t="n">
-        <v>43204</v>
+        <v>43249</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -3602,7 +3602,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>-89.90000000000001</v>
+        <v>-399</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -3610,7 +3610,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>-89.90000000000001</v>
+        <v>-399</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
@@ -3628,27 +3628,27 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>Billa</t>
+          <t>SPAR</t>
         </is>
       </c>
       <c r="M54" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="N54" t="n">
         <v>0</v>
       </c>
       <c r="O54" t="n">
-        <v>89.90000000000001</v>
+        <v>399</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>12.04.2018 18:39:59</t>
+          <t>27.05.2018 13:35:45</t>
         </is>
       </c>
       <c r="B55" s="2" t="n">
-        <v>43204</v>
+        <v>43249</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>-98.8</v>
+        <v>-295.8</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -3669,7 +3669,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>-98.8</v>
+        <v>-295.8</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
@@ -3683,31 +3683,31 @@
         </is>
       </c>
       <c r="K55" t="n">
-        <v>5499</v>
+        <v>5411</v>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>Универсам Авоська</t>
+          <t>SPAR</t>
         </is>
       </c>
       <c r="M55" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N55" t="n">
         <v>0</v>
       </c>
       <c r="O55" t="n">
-        <v>98.8</v>
+        <v>295.8</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>10.04.2018 16:04:19</t>
+          <t>26.05.2018 15:40:40</t>
         </is>
       </c>
       <c r="B56" s="2" t="n">
-        <v>43203</v>
+        <v>43248</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -3720,7 +3720,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>-298.5</v>
+        <v>-126.8</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -3728,7 +3728,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>-298.5</v>
+        <v>-126.8</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
@@ -3750,23 +3750,23 @@
         </is>
       </c>
       <c r="M56" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N56" t="n">
         <v>0</v>
       </c>
       <c r="O56" t="n">
-        <v>298.5</v>
+        <v>126.8</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>10.04.2018 00:00:00</t>
+          <t>25.05.2018 17:29:11</t>
         </is>
       </c>
       <c r="B57" s="2" t="n">
-        <v>43202</v>
+        <v>43248</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -3779,7 +3779,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>-38.9</v>
+        <v>-250</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -3787,7 +3787,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>-38.9</v>
+        <v>-250</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
@@ -3801,31 +3801,31 @@
         </is>
       </c>
       <c r="K57" t="n">
-        <v>5411</v>
+        <v>5499</v>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Пятёрочка</t>
+          <t>IP Muradyan</t>
         </is>
       </c>
       <c r="M57" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N57" t="n">
         <v>0</v>
       </c>
       <c r="O57" t="n">
-        <v>38.9</v>
+        <v>250</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>09.04.2018 23:02:48</t>
+          <t>25.05.2018 17:21:41</t>
         </is>
       </c>
       <c r="B58" s="2" t="n">
-        <v>43201</v>
+        <v>43247</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -3838,7 +3838,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>-195.14</v>
+        <v>-193.7</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>-195.14</v>
+        <v>-193.7</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
@@ -3874,17 +3874,17 @@
         <v>0</v>
       </c>
       <c r="O58" t="n">
-        <v>195.14</v>
+        <v>193.7</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>09.04.2018 17:43:37</t>
+          <t>24.05.2018 22:38:54</t>
         </is>
       </c>
       <c r="B59" s="2" t="n">
-        <v>43201</v>
+        <v>43247</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>-79.8</v>
+        <v>-191.5</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -3905,7 +3905,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>-79.8</v>
+        <v>-191.5</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
@@ -3923,27 +3923,27 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Billa</t>
+          <t>Перекрёсток</t>
         </is>
       </c>
       <c r="M59" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N59" t="n">
         <v>0</v>
       </c>
       <c r="O59" t="n">
-        <v>79.8</v>
+        <v>191.5</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>08.04.2018 18:41:24</t>
+          <t>24.05.2018 09:55:58</t>
         </is>
       </c>
       <c r="B60" s="2" t="n">
-        <v>43201</v>
+        <v>43247</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -3956,7 +3956,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>-330.7</v>
+        <v>-445.39</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -3964,7 +3964,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>-330.7</v>
+        <v>-445.39</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
@@ -3986,23 +3986,23 @@
         </is>
       </c>
       <c r="M60" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N60" t="n">
         <v>0</v>
       </c>
       <c r="O60" t="n">
-        <v>330.7</v>
+        <v>445.39</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>08.04.2018 13:02:05</t>
+          <t>23.05.2018 10:28:27</t>
         </is>
       </c>
       <c r="B61" s="2" t="n">
-        <v>43201</v>
+        <v>43244</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -4015,15 +4015,15 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>-120.7</v>
+        <v>-11.7</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>RUB</t>
+          <t>TRY</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>-120.7</v>
+        <v>-157.25</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
@@ -4041,27 +4041,27 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>Перекрёсток</t>
+          <t>Side Carsi Mjet</t>
         </is>
       </c>
       <c r="M61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N61" t="n">
         <v>0</v>
       </c>
       <c r="O61" t="n">
-        <v>120.7</v>
+        <v>157.25</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>07.04.2018 10:32:59</t>
+          <t>22.05.2018 18:15:12</t>
         </is>
       </c>
       <c r="B62" s="2" t="n">
-        <v>43199</v>
+        <v>43243</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -4074,15 +4074,15 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>-26.9</v>
+        <v>-5</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>RUB</t>
+          <t>TRY</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>-26.9</v>
+        <v>-69.59999999999999</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
@@ -4100,27 +4100,27 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Перекрёсток</t>
+          <t>Rasit Erdem</t>
         </is>
       </c>
       <c r="M62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N62" t="n">
         <v>0</v>
       </c>
       <c r="O62" t="n">
-        <v>26.9</v>
+        <v>69.59999999999999</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>06.04.2018 21:30:45</t>
+          <t>22.05.2018 16:44:05</t>
         </is>
       </c>
       <c r="B63" s="2" t="n">
-        <v>43198</v>
+        <v>43243</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -4133,15 +4133,15 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>-155.7</v>
+        <v>-178</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>RUB</t>
+          <t>TRY</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>-155.7</v>
+        <v>-2465.36</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
@@ -4155,31 +4155,31 @@
         </is>
       </c>
       <c r="K63" t="n">
-        <v>5411</v>
+        <v>5499</v>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>Перекрёсток</t>
+          <t>Souvenier Shop</t>
         </is>
       </c>
       <c r="M63" t="n">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="N63" t="n">
         <v>0</v>
       </c>
       <c r="O63" t="n">
-        <v>155.7</v>
+        <v>2465.36</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>06.04.2018 18:50:58</t>
+          <t>22.05.2018 13:05:56</t>
         </is>
       </c>
       <c r="B64" s="2" t="n">
-        <v>43198</v>
+        <v>43243</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -4192,15 +4192,15 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>-322.4</v>
+        <v>-3.95</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>RUB</t>
+          <t>TRY</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>-322.4</v>
+        <v>-54.55</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
@@ -4218,27 +4218,27 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>Перекрёсток</t>
+          <t>Side Carsi Mjet</t>
         </is>
       </c>
       <c r="M64" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="N64" t="n">
         <v>0</v>
       </c>
       <c r="O64" t="n">
-        <v>322.4</v>
+        <v>54.55</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>05.04.2018 14:37:53</t>
+          <t>22.05.2018 11:20:33</t>
         </is>
       </c>
       <c r="B65" s="2" t="n">
-        <v>43197</v>
+        <v>43243</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -4251,15 +4251,15 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>-209.6</v>
+        <v>-20.1</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>RUB</t>
+          <t>TRY</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>-209.6</v>
+        <v>-278.39</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
@@ -4273,31 +4273,31 @@
         </is>
       </c>
       <c r="K65" t="n">
-        <v>5499</v>
+        <v>5411</v>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>Универсам Авоська</t>
+          <t>Side Carsi Mjet</t>
         </is>
       </c>
       <c r="M65" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N65" t="n">
         <v>0</v>
       </c>
       <c r="O65" t="n">
-        <v>209.6</v>
+        <v>278.39</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>05.04.2018 14:02:49</t>
+          <t>21.05.2018 00:00:00</t>
         </is>
       </c>
       <c r="B66" s="2" t="n">
-        <v>43197</v>
+        <v>43242</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -4310,15 +4310,15 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>-343.4</v>
+        <v>-15.85</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>RUB</t>
+          <t>TRY</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>-343.4</v>
+        <v>-221.88</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
@@ -4336,27 +4336,27 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>Перекрёсток</t>
+          <t>Side Carsi Mjet</t>
         </is>
       </c>
       <c r="M66" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N66" t="n">
         <v>0</v>
       </c>
       <c r="O66" t="n">
-        <v>343.4</v>
+        <v>221.88</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>05.04.2018 09:24:04</t>
+          <t>21.05.2018 00:00:00</t>
         </is>
       </c>
       <c r="B67" s="2" t="n">
-        <v>43197</v>
+        <v>43242</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -4369,15 +4369,15 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>-51.84</v>
+        <v>-3.25</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>RUB</t>
+          <t>TRY</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>-51.84</v>
+        <v>-45</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
@@ -4395,27 +4395,27 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>Billa</t>
+          <t>Side Carsi Mjet</t>
         </is>
       </c>
       <c r="M67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N67" t="n">
         <v>0</v>
       </c>
       <c r="O67" t="n">
-        <v>51.84</v>
+        <v>45</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>04.04.2018 19:47:13</t>
+          <t>20.05.2018 14:34:52</t>
         </is>
       </c>
       <c r="B68" s="2" t="n">
-        <v>43196</v>
+        <v>43241</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -4428,15 +4428,15 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>-45.56</v>
+        <v>-22.55</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>RUB</t>
+          <t>TRY</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>-45.56</v>
+        <v>-326.53</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
@@ -4454,27 +4454,27 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>Billa</t>
+          <t>Side Carsi Mjet</t>
         </is>
       </c>
       <c r="M68" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N68" t="n">
         <v>0</v>
       </c>
       <c r="O68" t="n">
-        <v>45.56</v>
+        <v>326.53</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>04.04.2018 14:33:15</t>
+          <t>20.05.2018 12:48:01</t>
         </is>
       </c>
       <c r="B69" s="2" t="n">
-        <v>43196</v>
+        <v>43241</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -4487,15 +4487,15 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>-59.9</v>
+        <v>-1.5</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>RUB</t>
+          <t>TRY</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>-59.9</v>
+        <v>-21.73</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
@@ -4513,27 +4513,27 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>Перекрёсток</t>
+          <t>Side Carsi Mjet</t>
         </is>
       </c>
       <c r="M69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N69" t="n">
         <v>0</v>
       </c>
       <c r="O69" t="n">
-        <v>59.9</v>
+        <v>21.73</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>03.04.2018 18:21:52</t>
+          <t>19.05.2018 16:38:52</t>
         </is>
       </c>
       <c r="B70" s="2" t="n">
-        <v>43195</v>
+        <v>43240</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -4546,15 +4546,15 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>-42.2</v>
+        <v>-1.9</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>RUB</t>
+          <t>TRY</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>-42.2</v>
+        <v>-27.39</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
@@ -4572,7 +4572,7 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>Billa</t>
+          <t>Side Carsi Mjet</t>
         </is>
       </c>
       <c r="M70" t="n">
@@ -4582,17 +4582,17 @@
         <v>0</v>
       </c>
       <c r="O70" t="n">
-        <v>42.2</v>
+        <v>27.39</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>03.04.2018 09:57:30</t>
+          <t>19.05.2018 14:45:40</t>
         </is>
       </c>
       <c r="B71" s="2" t="n">
-        <v>43194</v>
+        <v>43240</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -4605,15 +4605,15 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>-109.45</v>
+        <v>-1.5</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>RUB</t>
+          <t>TRY</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>-109.45</v>
+        <v>-21.66</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
@@ -4631,27 +4631,27 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>Billa</t>
+          <t>Side Carsi Mjet</t>
         </is>
       </c>
       <c r="M71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N71" t="n">
         <v>0</v>
       </c>
       <c r="O71" t="n">
-        <v>109.45</v>
+        <v>21.66</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>02.04.2018 20:00:53</t>
+          <t>19.05.2018 12:37:10</t>
         </is>
       </c>
       <c r="B72" s="2" t="n">
-        <v>43194</v>
+        <v>43240</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -4664,15 +4664,15 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>-38</v>
+        <v>-13.4</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>RUB</t>
+          <t>TRY</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>-38</v>
+        <v>-193.65</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
@@ -4690,27 +4690,27 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>ВкусВилл</t>
+          <t>Side Carsi Mjet</t>
         </is>
       </c>
       <c r="M72" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N72" t="n">
         <v>0</v>
       </c>
       <c r="O72" t="n">
-        <v>38</v>
+        <v>193.65</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>02.04.2018 19:15:17</t>
+          <t>19.05.2018 10:13:32</t>
         </is>
       </c>
       <c r="B73" s="2" t="n">
-        <v>43194</v>
+        <v>43240</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -4723,15 +4723,15 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>-28.44</v>
+        <v>-5.75</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>RUB</t>
+          <t>TRY</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>-28.44</v>
+        <v>-83.45</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
@@ -4749,27 +4749,27 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>Billa</t>
+          <t>Side Carsi Mjet</t>
         </is>
       </c>
       <c r="M73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N73" t="n">
         <v>0</v>
       </c>
       <c r="O73" t="n">
-        <v>28.44</v>
+        <v>83.45</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>02.04.2018 09:25:08</t>
+          <t>18.05.2018 17:32:43</t>
         </is>
       </c>
       <c r="B74" s="2" t="n">
-        <v>43194</v>
+        <v>43239</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -4782,15 +4782,15 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>-133.54</v>
+        <v>-4.25</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>RUB</t>
+          <t>TRY</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>-133.54</v>
+        <v>-61.15</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
@@ -4808,27 +4808,27 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>Billa</t>
+          <t>Side M Jet</t>
         </is>
       </c>
       <c r="M74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N74" t="n">
         <v>0</v>
       </c>
       <c r="O74" t="n">
-        <v>133.54</v>
+        <v>61.15</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>28.03.2018 08:23:56</t>
+          <t>18.05.2018 15:34:33</t>
         </is>
       </c>
       <c r="B75" s="2" t="n">
-        <v>43189</v>
+        <v>43239</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -4841,15 +4841,15 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>-197.7</v>
+        <v>-2</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>RUB</t>
+          <t>TRY</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>-197.7</v>
+        <v>-28.67</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
@@ -4867,27 +4867,27 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>Billa</t>
+          <t>Eren Market 2</t>
         </is>
       </c>
       <c r="M75" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N75" t="n">
         <v>0</v>
       </c>
       <c r="O75" t="n">
-        <v>197.7</v>
+        <v>28.67</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>27.03.2018 22:14:38</t>
+          <t>18.05.2018 12:00:44</t>
         </is>
       </c>
       <c r="B76" s="2" t="n">
-        <v>43188</v>
+        <v>43239</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -4900,15 +4900,15 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>-70.42</v>
+        <v>-5.75</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>RUB</t>
+          <t>TRY</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>-70.42</v>
+        <v>-83.45</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
@@ -4926,7 +4926,7 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>Перекрёсток</t>
+          <t>Side Carsi Mjet</t>
         </is>
       </c>
       <c r="M76" t="n">
@@ -4936,17 +4936,17 @@
         <v>0</v>
       </c>
       <c r="O76" t="n">
-        <v>70.42</v>
+        <v>83.45</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>27.03.2018 18:11:05</t>
+          <t>17.05.2018 19:08:25</t>
         </is>
       </c>
       <c r="B77" s="2" t="n">
-        <v>43188</v>
+        <v>43238</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -4959,15 +4959,15 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>-159.9</v>
+        <v>-8.23</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>RUB</t>
+          <t>TRY</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>-159.9</v>
+        <v>-118.72</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
@@ -4985,27 +4985,27 @@
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>Перекрёсток</t>
+          <t>Side Carsi Mjet</t>
         </is>
       </c>
       <c r="M77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N77" t="n">
         <v>0</v>
       </c>
       <c r="O77" t="n">
-        <v>159.9</v>
+        <v>118.72</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>25.03.2018 19:55:48</t>
+          <t>17.05.2018 18:24:53</t>
         </is>
       </c>
       <c r="B78" s="2" t="n">
-        <v>43186</v>
+        <v>43239</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -5018,15 +5018,15 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>-731.08</v>
+        <v>-10</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>RUB</t>
+          <t>TRY</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>-731.08</v>
+        <v>-143.96</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
@@ -5044,27 +5044,27 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>Перекрёсток</t>
+          <t>Green Market</t>
         </is>
       </c>
       <c r="M78" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="N78" t="n">
         <v>0</v>
       </c>
       <c r="O78" t="n">
-        <v>731.08</v>
+        <v>143.96</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>24.03.2018 15:49:54</t>
+          <t>17.05.2018 15:15:14</t>
         </is>
       </c>
       <c r="B79" s="2" t="n">
-        <v>43185</v>
+        <v>43238</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -5077,15 +5077,15 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>-329</v>
+        <v>-20.35</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>RUB</t>
+          <t>TRY</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>-329</v>
+        <v>-293.02</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
@@ -5099,31 +5099,31 @@
         </is>
       </c>
       <c r="K79" t="n">
-        <v>5499</v>
+        <v>5411</v>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Khlebnye Traditsii</t>
+          <t>Side Carsi Mjet</t>
         </is>
       </c>
       <c r="M79" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N79" t="n">
         <v>0</v>
       </c>
       <c r="O79" t="n">
-        <v>329</v>
+        <v>293.02</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>24.03.2018 00:00:00</t>
+          <t>17.05.2018 12:27:06</t>
         </is>
       </c>
       <c r="B80" s="2" t="n">
-        <v>43186</v>
+        <v>43238</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -5136,15 +5136,15 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>-49.8</v>
+        <v>-1.5</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>RUB</t>
+          <t>TRY</t>
         </is>
       </c>
       <c r="G80" t="n">
-        <v>-49.8</v>
+        <v>-21.47</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
@@ -5162,7 +5162,7 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>Billa</t>
+          <t>Side Carsi Mjet</t>
         </is>
       </c>
       <c r="M80" t="n">
@@ -5172,17 +5172,17 @@
         <v>0</v>
       </c>
       <c r="O80" t="n">
-        <v>49.8</v>
+        <v>21.47</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>23.03.2018 16:58:53</t>
+          <t>16.05.2018 16:48:01</t>
         </is>
       </c>
       <c r="B81" s="2" t="n">
-        <v>43185</v>
+        <v>43238</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -5195,15 +5195,15 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>-49.8</v>
+        <v>-12</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>RUB</t>
+          <t>TRY</t>
         </is>
       </c>
       <c r="G81" t="n">
-        <v>-49.8</v>
+        <v>-172.4</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
@@ -5221,27 +5221,27 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>Billa</t>
+          <t>Green Market</t>
         </is>
       </c>
       <c r="M81" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N81" t="n">
         <v>0</v>
       </c>
       <c r="O81" t="n">
-        <v>49.8</v>
+        <v>172.4</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>22.03.2018 21:06:53</t>
+          <t>16.05.2018 13:47:41</t>
         </is>
       </c>
       <c r="B82" s="2" t="n">
-        <v>43183</v>
+        <v>43237</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -5254,15 +5254,15 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>-224.25</v>
+        <v>-7.5</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>RUB</t>
+          <t>TRY</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>-224.25</v>
+        <v>-108.53</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
@@ -5280,27 +5280,27 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>Перекрёсток</t>
+          <t>Side Carsi Mjet</t>
         </is>
       </c>
       <c r="M82" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N82" t="n">
         <v>0</v>
       </c>
       <c r="O82" t="n">
-        <v>224.25</v>
+        <v>108.53</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>22.03.2018 08:34:27</t>
+          <t>16.05.2018 12:57:28</t>
         </is>
       </c>
       <c r="B83" s="2" t="n">
-        <v>43182</v>
+        <v>43237</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -5313,15 +5313,15 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>-49.8</v>
+        <v>-19.35</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>RUB</t>
+          <t>TRY</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>-49.8</v>
+        <v>-279.53</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
@@ -5339,27 +5339,27 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>Billa</t>
+          <t>Side Carsi Mjet</t>
         </is>
       </c>
       <c r="M83" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N83" t="n">
         <v>0</v>
       </c>
       <c r="O83" t="n">
-        <v>49.8</v>
+        <v>279.53</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>21.03.2018 09:11:38</t>
+          <t>15.05.2018 15:53:27</t>
         </is>
       </c>
       <c r="B84" s="2" t="n">
-        <v>43181</v>
+        <v>43236</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -5372,15 +5372,15 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>-122.9</v>
+        <v>-3.7</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>RUB</t>
+          <t>TRY</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>-122.9</v>
+        <v>-54.1</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
@@ -5398,27 +5398,27 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>Billa</t>
+          <t>Side Carsi Mjet</t>
         </is>
       </c>
       <c r="M84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N84" t="n">
         <v>0</v>
       </c>
       <c r="O84" t="n">
-        <v>122.9</v>
+        <v>54.1</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>19.03.2018 20:04:09</t>
+          <t>15.05.2018 12:31:04</t>
         </is>
       </c>
       <c r="B85" s="2" t="n">
-        <v>43180</v>
+        <v>43236</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -5431,15 +5431,15 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>-122.9</v>
+        <v>-3</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>RUB</t>
+          <t>TRY</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>-122.9</v>
+        <v>-43.92</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
@@ -5457,27 +5457,27 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>Billa</t>
+          <t>Side Carsi Mjet</t>
         </is>
       </c>
       <c r="M85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N85" t="n">
         <v>0</v>
       </c>
       <c r="O85" t="n">
-        <v>122.9</v>
+        <v>43.92</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>18.03.2018 11:25:42</t>
+          <t>14.05.2018 00:00:00</t>
         </is>
       </c>
       <c r="B86" s="2" t="n">
-        <v>43179</v>
+        <v>43235</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -5490,15 +5490,15 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>-722.05</v>
+        <v>-2.7</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>RUB</t>
+          <t>TRY</t>
         </is>
       </c>
       <c r="G86" t="n">
-        <v>-722.05</v>
+        <v>-39.82</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
@@ -5516,27 +5516,27 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>Перекрёсток</t>
+          <t>Side Carsi Mjet</t>
         </is>
       </c>
       <c r="M86" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="N86" t="n">
         <v>0</v>
       </c>
       <c r="O86" t="n">
-        <v>722.05</v>
+        <v>39.82</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>16.03.2018 09:36:23</t>
+          <t>14.05.2018 00:00:00</t>
         </is>
       </c>
       <c r="B87" s="2" t="n">
-        <v>43176</v>
+        <v>43235</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -5549,15 +5549,15 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>-53.8</v>
+        <v>-3.5</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>RUB</t>
+          <t>TRY</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>-53.8</v>
+        <v>-51.82</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
@@ -5575,7 +5575,7 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>Billa</t>
+          <t>Migros</t>
         </is>
       </c>
       <c r="M87" t="n">
@@ -5585,17 +5585,17 @@
         <v>0</v>
       </c>
       <c r="O87" t="n">
-        <v>53.8</v>
+        <v>51.82</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>13.03.2018 09:59:40</t>
+          <t>13.05.2018 18:40:15</t>
         </is>
       </c>
       <c r="B88" s="2" t="n">
-        <v>43173</v>
+        <v>43234</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -5608,15 +5608,15 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>-35.9</v>
+        <v>-34.2</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>RUB</t>
+          <t>TRY</t>
         </is>
       </c>
       <c r="G88" t="n">
-        <v>-35.9</v>
+        <v>-512.41</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
@@ -5634,27 +5634,27 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>Billa</t>
+          <t>Side Carsi Mjet</t>
         </is>
       </c>
       <c r="M88" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N88" t="n">
         <v>0</v>
       </c>
       <c r="O88" t="n">
-        <v>35.9</v>
+        <v>512.41</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>09.03.2018 20:55:43</t>
+          <t>13.05.2018 08:54:16</t>
         </is>
       </c>
       <c r="B89" s="2" t="n">
-        <v>43170</v>
+        <v>43234</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -5667,15 +5667,15 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>-131.8</v>
+        <v>-10.85</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>RUB</t>
+          <t>TRY</t>
         </is>
       </c>
       <c r="G89" t="n">
-        <v>-131.8</v>
+        <v>-162.41</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
@@ -5693,27 +5693,27 @@
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>Перекрёсток</t>
+          <t>Side Carsi Mjet</t>
         </is>
       </c>
       <c r="M89" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N89" t="n">
         <v>0</v>
       </c>
       <c r="O89" t="n">
-        <v>131.8</v>
+        <v>162.41</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>08.03.2018 21:26:14</t>
+          <t>11.05.2018 17:27:32</t>
         </is>
       </c>
       <c r="B90" s="2" t="n">
-        <v>43169</v>
+        <v>43232</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -5726,15 +5726,15 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>-437.7</v>
+        <v>-11.9</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>RUB</t>
+          <t>TRY</t>
         </is>
       </c>
       <c r="G90" t="n">
-        <v>-437.7</v>
+        <v>-178.57</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
@@ -5752,27 +5752,27 @@
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>Перекрёсток</t>
+          <t>Side Carsi Mjet</t>
         </is>
       </c>
       <c r="M90" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="N90" t="n">
         <v>0</v>
       </c>
       <c r="O90" t="n">
-        <v>437.7</v>
+        <v>178.57</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>05.03.2018 23:12:38</t>
+          <t>10.05.2018 14:49:30</t>
         </is>
       </c>
       <c r="B91" s="2" t="n">
-        <v>43166</v>
+        <v>43231</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -5785,15 +5785,15 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>-425.4</v>
+        <v>-16.21</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>RUB</t>
+          <t>TRY</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>-425.4</v>
+        <v>-242.99</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
@@ -5811,27 +5811,27 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>Перекрёсток</t>
+          <t>Side Carsi Mjet</t>
         </is>
       </c>
       <c r="M91" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="N91" t="n">
         <v>0</v>
       </c>
       <c r="O91" t="n">
-        <v>425.4</v>
+        <v>242.99</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>04.03.2018 14:54:05</t>
+          <t>09.05.2018 21:15:41</t>
         </is>
       </c>
       <c r="B92" s="2" t="n">
-        <v>43165</v>
+        <v>43231</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -5844,7 +5844,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>-583.91</v>
+        <v>-285</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -5852,7 +5852,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>-583.91</v>
+        <v>-285</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
@@ -5866,31 +5866,31 @@
         </is>
       </c>
       <c r="K92" t="n">
-        <v>5411</v>
+        <v>5499</v>
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>Перекрёсток</t>
+          <t>IP Muradyan</t>
         </is>
       </c>
       <c r="M92" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="N92" t="n">
         <v>0</v>
       </c>
       <c r="O92" t="n">
-        <v>583.91</v>
+        <v>285</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>04.03.2018 14:09:38</t>
+          <t>08.05.2018 19:34:15</t>
         </is>
       </c>
       <c r="B93" s="2" t="n">
-        <v>43164</v>
+        <v>43229</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -5903,7 +5903,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>-1055</v>
+        <v>-44.79</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -5911,7 +5911,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>-1055</v>
+        <v>-44.79</v>
       </c>
       <c r="H93" t="inlineStr">
         <is>
@@ -5925,31 +5925,31 @@
         </is>
       </c>
       <c r="K93" t="n">
-        <v>5499</v>
+        <v>5411</v>
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>Miramarkettreid</t>
+          <t>Дикси</t>
         </is>
       </c>
       <c r="M93" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="N93" t="n">
         <v>0</v>
       </c>
       <c r="O93" t="n">
-        <v>1055</v>
+        <v>44.79</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>03.03.2018 11:52:21</t>
+          <t>07.05.2018 17:40:52</t>
         </is>
       </c>
       <c r="B94" s="2" t="n">
-        <v>43165</v>
+        <v>43229</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -5962,7 +5962,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>-164.6</v>
+        <v>-181.6</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
@@ -5970,7 +5970,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>-164.6</v>
+        <v>-181.6</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
@@ -5988,7 +5988,7 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>Billa</t>
+          <t>Перекрёсток</t>
         </is>
       </c>
       <c r="M94" t="n">
@@ -5998,17 +5998,17 @@
         <v>0</v>
       </c>
       <c r="O94" t="n">
-        <v>164.6</v>
+        <v>181.6</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>28.02.2018 22:52:20</t>
+          <t>06.05.2018 00:00:00</t>
         </is>
       </c>
       <c r="B95" s="2" t="n">
-        <v>43160</v>
+        <v>43228</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>-41</v>
+        <v>-250</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
@@ -6029,7 +6029,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>-41</v>
+        <v>-250</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
@@ -6043,31 +6043,31 @@
         </is>
       </c>
       <c r="K95" t="n">
-        <v>5411</v>
+        <v>5499</v>
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>Дикси</t>
+          <t>IP Muradyan</t>
         </is>
       </c>
       <c r="M95" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N95" t="n">
         <v>0</v>
       </c>
       <c r="O95" t="n">
-        <v>41</v>
+        <v>250</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>27.02.2018 18:52:54</t>
+          <t>05.05.2018 20:52:23</t>
         </is>
       </c>
       <c r="B96" s="2" t="n">
-        <v>43160</v>
+        <v>43227</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -6080,7 +6080,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>-183</v>
+        <v>-250</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -6088,7 +6088,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>-183</v>
+        <v>-250</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
@@ -6102,31 +6102,31 @@
         </is>
       </c>
       <c r="K96" t="n">
-        <v>5411</v>
+        <v>5499</v>
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>Азбука Вкуса</t>
+          <t>IP Muradyan</t>
         </is>
       </c>
       <c r="M96" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N96" t="n">
         <v>0</v>
       </c>
       <c r="O96" t="n">
-        <v>183</v>
+        <v>250</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>23.02.2018 18:00:17</t>
+          <t>05.05.2018 20:27:42</t>
         </is>
       </c>
       <c r="B97" s="2" t="n">
-        <v>43156</v>
+        <v>43227</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -6139,7 +6139,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>-35.24</v>
+        <v>-285.09</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
@@ -6147,7 +6147,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>-35.24</v>
+        <v>-285.09</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
@@ -6165,27 +6165,27 @@
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>Магнит</t>
+          <t>Перекрёсток</t>
         </is>
       </c>
       <c r="M97" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N97" t="n">
         <v>0</v>
       </c>
       <c r="O97" t="n">
-        <v>35.24</v>
+        <v>285.09</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>23.02.2018 17:43:43</t>
+          <t>05.05.2018 15:52:43</t>
         </is>
       </c>
       <c r="B98" s="2" t="n">
-        <v>43156</v>
+        <v>43226</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -6198,7 +6198,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>-1204</v>
+        <v>-69.8</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
@@ -6206,7 +6206,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>-1204</v>
+        <v>-69.8</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
@@ -6224,27 +6224,27 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>SPAR</t>
+          <t>Дикси</t>
         </is>
       </c>
       <c r="M98" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="N98" t="n">
         <v>0</v>
       </c>
       <c r="O98" t="n">
-        <v>1204</v>
+        <v>69.8</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>23.02.2018 10:27:51</t>
+          <t>04.05.2018 21:07:21</t>
         </is>
       </c>
       <c r="B99" s="2" t="n">
-        <v>43156</v>
+        <v>43226</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -6257,7 +6257,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>-167</v>
+        <v>-38.59</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
@@ -6265,7 +6265,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>-167</v>
+        <v>-38.59</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
@@ -6283,27 +6283,27 @@
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>SPAR</t>
+          <t>Пятёрочка</t>
         </is>
       </c>
       <c r="M99" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N99" t="n">
         <v>0</v>
       </c>
       <c r="O99" t="n">
-        <v>167</v>
+        <v>38.59</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>22.02.2018 19:11:19</t>
+          <t>03.05.2018 15:19:06</t>
         </is>
       </c>
       <c r="B100" s="2" t="n">
-        <v>43155</v>
+        <v>43225</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -6316,7 +6316,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>-650.5</v>
+        <v>-368.3</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
@@ -6324,7 +6324,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>-650.5</v>
+        <v>-368.3</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
@@ -6342,27 +6342,27 @@
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>SPAR</t>
+          <t>Перекрёсток</t>
         </is>
       </c>
       <c r="M100" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="N100" t="n">
         <v>0</v>
       </c>
       <c r="O100" t="n">
-        <v>650.5</v>
+        <v>368.3</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>21.02.2018 22:21:21</t>
+          <t>02.05.2018 18:28:38</t>
         </is>
       </c>
       <c r="B101" s="2" t="n">
-        <v>43154</v>
+        <v>43224</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -6375,7 +6375,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>-336.5</v>
+        <v>-221.27</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
@@ -6383,7 +6383,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>-336.5</v>
+        <v>-221.27</v>
       </c>
       <c r="H101" t="inlineStr">
         <is>
@@ -6401,27 +6401,27 @@
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>SPAR</t>
+          <t>Пятёрочка</t>
         </is>
       </c>
       <c r="M101" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N101" t="n">
         <v>0</v>
       </c>
       <c r="O101" t="n">
-        <v>336.5</v>
+        <v>221.27</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>20.02.2018 18:30:51</t>
+          <t>01.05.2018 22:06:23</t>
         </is>
       </c>
       <c r="B102" s="2" t="n">
-        <v>43153</v>
+        <v>43223</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -6434,7 +6434,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>-72.90000000000001</v>
+        <v>-416.3</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
@@ -6442,7 +6442,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>-72.90000000000001</v>
+        <v>-416.3</v>
       </c>
       <c r="H102" t="inlineStr">
         <is>
@@ -6460,17 +6460,1138 @@
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>Магнит</t>
+          <t>Перекрёсток</t>
         </is>
       </c>
       <c r="M102" t="n">
+        <v>8</v>
+      </c>
+      <c r="N102" t="n">
+        <v>0</v>
+      </c>
+      <c r="O102" t="n">
+        <v>416.3</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>30.04.2018 13:09:05</t>
+        </is>
+      </c>
+      <c r="B103" s="2" t="n">
+        <v>43223</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>*7197</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="E103" t="n">
+        <v>-116.16</v>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>RUB</t>
+        </is>
+      </c>
+      <c r="G103" t="n">
+        <v>-116.16</v>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>RUB</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>Супермаркеты</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>5411</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>Перекрёсток</t>
+        </is>
+      </c>
+      <c r="M103" t="n">
+        <v>2</v>
+      </c>
+      <c r="N103" t="n">
+        <v>0</v>
+      </c>
+      <c r="O103" t="n">
+        <v>116.16</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>29.04.2018 18:57:14</t>
+        </is>
+      </c>
+      <c r="B104" s="2" t="n">
+        <v>43222</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>*7197</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="E104" t="n">
+        <v>-88.8</v>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>RUB</t>
+        </is>
+      </c>
+      <c r="G104" t="n">
+        <v>-88.8</v>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>RUB</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>Супермаркеты</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>5411</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>Перекрёсток</t>
+        </is>
+      </c>
+      <c r="M104" t="n">
         <v>1</v>
       </c>
-      <c r="N102" t="n">
-        <v>0</v>
-      </c>
-      <c r="O102" t="n">
-        <v>72.90000000000001</v>
+      <c r="N104" t="n">
+        <v>0</v>
+      </c>
+      <c r="O104" t="n">
+        <v>88.8</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>29.04.2018 14:17:39</t>
+        </is>
+      </c>
+      <c r="B105" s="2" t="n">
+        <v>43222</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>*7197</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="E105" t="n">
+        <v>-220.27</v>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>RUB</t>
+        </is>
+      </c>
+      <c r="G105" t="n">
+        <v>-220.27</v>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>RUB</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>Супермаркеты</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>5411</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>Перекрёсток</t>
+        </is>
+      </c>
+      <c r="M105" t="n">
+        <v>4</v>
+      </c>
+      <c r="N105" t="n">
+        <v>0</v>
+      </c>
+      <c r="O105" t="n">
+        <v>220.27</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>28.04.2018 18:17:43</t>
+        </is>
+      </c>
+      <c r="B106" s="2" t="n">
+        <v>43224</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>*7197</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="E106" t="n">
+        <v>-61.4</v>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>RUB</t>
+        </is>
+      </c>
+      <c r="G106" t="n">
+        <v>-61.4</v>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>RUB</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>Супермаркеты</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>5411</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>Перекрёсток</t>
+        </is>
+      </c>
+      <c r="M106" t="n">
+        <v>1</v>
+      </c>
+      <c r="N106" t="n">
+        <v>0</v>
+      </c>
+      <c r="O106" t="n">
+        <v>61.4</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>26.04.2018 17:12:29</t>
+        </is>
+      </c>
+      <c r="B107" s="2" t="n">
+        <v>43219</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>*7197</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="E107" t="n">
+        <v>-463.3</v>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>RUB</t>
+        </is>
+      </c>
+      <c r="G107" t="n">
+        <v>-463.3</v>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>RUB</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>Супермаркеты</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>5411</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>Перекрёсток</t>
+        </is>
+      </c>
+      <c r="M107" t="n">
+        <v>9</v>
+      </c>
+      <c r="N107" t="n">
+        <v>0</v>
+      </c>
+      <c r="O107" t="n">
+        <v>463.3</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>24.04.2018 14:35:40</t>
+        </is>
+      </c>
+      <c r="B108" s="2" t="n">
+        <v>43216</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>*7197</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="E108" t="n">
+        <v>-155.6</v>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>RUB</t>
+        </is>
+      </c>
+      <c r="G108" t="n">
+        <v>-155.6</v>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>RUB</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>Супермаркеты</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>5411</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>Перекрёсток</t>
+        </is>
+      </c>
+      <c r="M108" t="n">
+        <v>3</v>
+      </c>
+      <c r="N108" t="n">
+        <v>0</v>
+      </c>
+      <c r="O108" t="n">
+        <v>155.6</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>24.04.2018 09:27:18</t>
+        </is>
+      </c>
+      <c r="B109" s="2" t="n">
+        <v>43216</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>*7197</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="E109" t="n">
+        <v>-108.92</v>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>RUB</t>
+        </is>
+      </c>
+      <c r="G109" t="n">
+        <v>-108.92</v>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>RUB</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>Супермаркеты</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>5411</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>Billa</t>
+        </is>
+      </c>
+      <c r="M109" t="n">
+        <v>2</v>
+      </c>
+      <c r="N109" t="n">
+        <v>0</v>
+      </c>
+      <c r="O109" t="n">
+        <v>108.92</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>23.04.2018 17:22:05</t>
+        </is>
+      </c>
+      <c r="B110" s="2" t="n">
+        <v>43215</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>*7197</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="E110" t="n">
+        <v>-208.6</v>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>RUB</t>
+        </is>
+      </c>
+      <c r="G110" t="n">
+        <v>-208.6</v>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>RUB</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>Супермаркеты</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>5411</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>Перекрёсток</t>
+        </is>
+      </c>
+      <c r="M110" t="n">
+        <v>4</v>
+      </c>
+      <c r="N110" t="n">
+        <v>0</v>
+      </c>
+      <c r="O110" t="n">
+        <v>208.6</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>22.04.2018 20:03:46</t>
+        </is>
+      </c>
+      <c r="B111" s="2" t="n">
+        <v>43214</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>*7197</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="E111" t="n">
+        <v>-342.5</v>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>RUB</t>
+        </is>
+      </c>
+      <c r="G111" t="n">
+        <v>-342.5</v>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>RUB</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>Супермаркеты</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>5411</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>Перекрёсток</t>
+        </is>
+      </c>
+      <c r="M111" t="n">
+        <v>6</v>
+      </c>
+      <c r="N111" t="n">
+        <v>0</v>
+      </c>
+      <c r="O111" t="n">
+        <v>342.5</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>21.04.2018 12:49:14</t>
+        </is>
+      </c>
+      <c r="B112" s="2" t="n">
+        <v>43213</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>*7197</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="E112" t="n">
+        <v>-433.93</v>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>RUB</t>
+        </is>
+      </c>
+      <c r="G112" t="n">
+        <v>-433.93</v>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>RUB</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>Супермаркеты</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>5411</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>SPAR</t>
+        </is>
+      </c>
+      <c r="M112" t="n">
+        <v>8</v>
+      </c>
+      <c r="N112" t="n">
+        <v>0</v>
+      </c>
+      <c r="O112" t="n">
+        <v>433.93</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>19.04.2018 12:26:41</t>
+        </is>
+      </c>
+      <c r="B113" s="2" t="n">
+        <v>43211</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>*7197</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="E113" t="n">
+        <v>-173.5</v>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>RUB</t>
+        </is>
+      </c>
+      <c r="G113" t="n">
+        <v>-173.5</v>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>RUB</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>Супермаркеты</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>5499</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>Универсам Авоська</t>
+        </is>
+      </c>
+      <c r="M113" t="n">
+        <v>3</v>
+      </c>
+      <c r="N113" t="n">
+        <v>0</v>
+      </c>
+      <c r="O113" t="n">
+        <v>173.5</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>19.04.2018 10:12:40</t>
+        </is>
+      </c>
+      <c r="B114" s="2" t="n">
+        <v>43211</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>*7197</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="E114" t="n">
+        <v>-89.90000000000001</v>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>RUB</t>
+        </is>
+      </c>
+      <c r="G114" t="n">
+        <v>-89.90000000000001</v>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>RUB</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>Супермаркеты</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>5411</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>Billa</t>
+        </is>
+      </c>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+      <c r="N114" t="n">
+        <v>0</v>
+      </c>
+      <c r="O114" t="n">
+        <v>89.90000000000001</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>18.04.2018 17:18:43</t>
+        </is>
+      </c>
+      <c r="B115" s="2" t="n">
+        <v>43210</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>*7197</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="E115" t="n">
+        <v>-215.18</v>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>RUB</t>
+        </is>
+      </c>
+      <c r="G115" t="n">
+        <v>-215.18</v>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>RUB</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>Супермаркеты</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>5499</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>Универсам Авоська</t>
+        </is>
+      </c>
+      <c r="M115" t="n">
+        <v>4</v>
+      </c>
+      <c r="N115" t="n">
+        <v>0</v>
+      </c>
+      <c r="O115" t="n">
+        <v>215.18</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>17.04.2018 17:33:50</t>
+        </is>
+      </c>
+      <c r="B116" s="2" t="n">
+        <v>43209</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>*7197</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="E116" t="n">
+        <v>-132.7</v>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>RUB</t>
+        </is>
+      </c>
+      <c r="G116" t="n">
+        <v>-132.7</v>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>RUB</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>Супермаркеты</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>5411</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>Перекрёсток</t>
+        </is>
+      </c>
+      <c r="M116" t="n">
+        <v>2</v>
+      </c>
+      <c r="N116" t="n">
+        <v>0</v>
+      </c>
+      <c r="O116" t="n">
+        <v>132.7</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>17.04.2018 09:21:41</t>
+        </is>
+      </c>
+      <c r="B117" s="2" t="n">
+        <v>43209</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>*7197</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="E117" t="n">
+        <v>-89.90000000000001</v>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>RUB</t>
+        </is>
+      </c>
+      <c r="G117" t="n">
+        <v>-89.90000000000001</v>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>RUB</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>Супермаркеты</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>5411</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>Billa</t>
+        </is>
+      </c>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+      <c r="N117" t="n">
+        <v>0</v>
+      </c>
+      <c r="O117" t="n">
+        <v>89.90000000000001</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>15.04.2018 00:00:00</t>
+        </is>
+      </c>
+      <c r="B118" s="2" t="n">
+        <v>43207</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>*7197</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="E118" t="n">
+        <v>-703.8200000000001</v>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>RUB</t>
+        </is>
+      </c>
+      <c r="G118" t="n">
+        <v>-703.8200000000001</v>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>RUB</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>Супермаркеты</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>5411</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>Перекрёсток</t>
+        </is>
+      </c>
+      <c r="M118" t="n">
+        <v>14</v>
+      </c>
+      <c r="N118" t="n">
+        <v>0</v>
+      </c>
+      <c r="O118" t="n">
+        <v>703.8200000000001</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>13.04.2018 13:37:59</t>
+        </is>
+      </c>
+      <c r="B119" s="2" t="n">
+        <v>43206</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>*7197</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="E119" t="n">
+        <v>-149.6</v>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>RUB</t>
+        </is>
+      </c>
+      <c r="G119" t="n">
+        <v>-149.6</v>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>RUB</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>Супермаркеты</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>5411</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>Перекрёсток</t>
+        </is>
+      </c>
+      <c r="M119" t="n">
+        <v>2</v>
+      </c>
+      <c r="N119" t="n">
+        <v>0</v>
+      </c>
+      <c r="O119" t="n">
+        <v>149.6</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>13.04.2018 09:25:06</t>
+        </is>
+      </c>
+      <c r="B120" s="2" t="n">
+        <v>43204</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>*7197</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="E120" t="n">
+        <v>-89.90000000000001</v>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>RUB</t>
+        </is>
+      </c>
+      <c r="G120" t="n">
+        <v>-89.90000000000001</v>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>RUB</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>Супермаркеты</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>5411</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>Billa</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+      <c r="N120" t="n">
+        <v>0</v>
+      </c>
+      <c r="O120" t="n">
+        <v>89.90000000000001</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>12.04.2018 18:39:59</t>
+        </is>
+      </c>
+      <c r="B121" s="2" t="n">
+        <v>43204</v>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>*7197</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+      <c r="E121" t="n">
+        <v>-98.8</v>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>RUB</t>
+        </is>
+      </c>
+      <c r="G121" t="n">
+        <v>-98.8</v>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>RUB</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>Супермаркеты</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>5499</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>Универсам Авоська</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+      <c r="N121" t="n">
+        <v>0</v>
+      </c>
+      <c r="O121" t="n">
+        <v>98.8</v>
       </c>
     </row>
   </sheetData>
